--- a/Troisième Question Tour1.xlsx
+++ b/Troisième Question Tour1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,43 +441,407 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/arrondissement</t>
+          <t>http://dbpedia.org/ontology/deathPlace</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/parent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/deathDate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthDate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/birthPlace</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Andenne</t>
+          <t>http://dbpedia.org/resource/Giovanni_Francesco_Guidi_di_Bagno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>http://dbpedia.org/resource/Rome</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Colonna_family</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1641</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Dinant</t>
+          <t>http://dbpedia.org/resource/Giovanni_Doria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>http://dbpedia.org/resource/Palermo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Giovanni_Andrea_Doria</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1642</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Anhée</t>
+          <t>http://dbpedia.org/resource/George_Murray_(bishop_of_Rochester)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>http://dbpedia.org/resource/Chester_Square</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Lord_George_Murray_(bishop)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1860</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Geoffrey_(archbishop_of_York)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Normandy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Henry_II_of_England</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/12-12-12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Ferdinand_III_of_Castile</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Crown_of_Castile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Alfonso_IX_of_León</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1252</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Erik_Benzelius_the_younger</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Linköping</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Erik_Benzelius_the_Elder</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1743</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Edward_the_Confessor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/London</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Æthelred_the_Unready</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1066</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Edward_William_Grinfield</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Brighton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Thomas_Grinfield</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1864</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Edward_Francis_Wilson</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Saltspring_Island</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Daniel_Wilson_(bishop)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1915</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Donald_Foster_Hudson</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/England</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Father</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/2003</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Dick_Sheppard_(priest)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1880</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Windsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Claus_Westermann</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1909</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Charles_Januarius_Acton</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1803</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Naples</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Carlo_Barberini</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1630</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Rome</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Cardinal_de_Bouillon</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1643</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/France</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Camillo_Francesco_Maria_Pamphili</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1622</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Naples</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Benjamin_Hoadly</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/1676</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Kent</t>
         </is>
       </c>
     </row>

--- a/Troisième Question Tour1.xlsx
+++ b/Troisième Question Tour1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,407 +441,571 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/deathPlace</t>
+          <t>test1.csv-COL2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/parent</t>
+          <t>test1.csv-COL3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/deathDate</t>
+          <t>test1.csv-COL4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/birthDate</t>
+          <t>http://dbpedia.org/ontology/percentage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/ontology/birthPlace</t>
+          <t>test1.csv-COL6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/ontology/populationTotal</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test2.csv-COL2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>test2.csv-COL3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Francesco_Guidi_di_Bagno</t>
+          <t>http://dbpedia.org/resource/Terp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Rome</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Colonna_family</t>
+          <t>92136</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1641</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/WD</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/A1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>92094046</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Doria</t>
+          <t>http://dbpedia.org/resource/Flawinne</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Palermo</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Giovanni_Andrea_Doria</t>
+          <t>92043</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1642</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/FW</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/George_Murray_(bishop_of_Rochester)</t>
+          <t>http://dbpedia.org/resource/Terp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Chester_Square</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Lord_George_Murray_(bishop)</t>
+          <t>92136</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1860</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/WD</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Geoffrey_(archbishop_of_York)</t>
+          <t>Naninne</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Normandy</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Henry_II_of_England</t>
+          <t>92095</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/12-12-12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/NN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Ferdinand_III_of_Castile</t>
+          <t>http://dbpedia.org/resource/Dave_Brat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Crown_of_Castile</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Alfonso_IX_of_León</t>
+          <t>92032</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1252</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/DV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1431</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Erik_Benzelius_the_younger</t>
+          <t>http://dbpedia.org/resource/Champion_(sportswear)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Linköping</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Erik_Benzelius_the_Elder</t>
+          <t>92024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1743</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/CH</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Edward_the_Confessor</t>
+          <t>Daussoulx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/London</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Æthelred_the_Unready</t>
+          <t>92031</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1066</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/DX</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Edward_William_Grinfield</t>
+          <t>http://dbpedia.org/resource/Fort_de_Cognelée</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Brighton</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Thomas_Grinfield</t>
+          <t>92025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1864</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/CG</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Edward_Francis_Wilson</t>
+          <t>Vedrin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Saltspring_Island</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Daniel_Wilson_(bishop)</t>
+          <t>92128</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1915</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/VD</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6580</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Donald_Foster_Hudson</t>
+          <t>http://dbpedia.org/resource/Sleeze_Beez</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/England</t>
+          <t>http://dbpedia.org/resource/NAMUR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Father</t>
+          <t>92009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/2003</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/BZ</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Dick_Sheppard_(priest)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>http://dbpedia.org/resource/Saint-Servais</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/NAMUR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>92108</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5002</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/1880</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Windsor</t>
-        </is>
-      </c>
+          <t>http://dbpedia.org/resource/SS_(band)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>9299</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Claus_Westermann</t>
+          <t>http://dbpedia.org/resource/Citadelle_(gin)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1909</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Berlin</t>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/N5</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>92094012</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Charles_Januarius_Acton</t>
+          <t>Herbatte</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1803</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Naples</t>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/N3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>92094024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Carlo_Barberini</t>
+          <t>http://dbpedia.org/resource/Champion_(VTA)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1630</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Rome</t>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/V0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>92094043</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Cardinal_de_Bouillon</t>
+          <t>http://dbpedia.org/resource/Lorne_Plante</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1643</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/France</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Camillo_Francesco_Maria_Pamphili</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1622</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Naples</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Benjamin_Hoadly</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/1676</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Kent</t>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/N4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>92094027</t>
         </is>
       </c>
     </row>
